--- a/pearson_tables/t2m_netherlands-2-1.xlsx
+++ b/pearson_tables/t2m_netherlands-2-1.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6951510190909815</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6692321151963511</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.5975827423358984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.7576901791262264</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7872300414994882</v>
+        <v>-0.7574033354500092</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7074178577613812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.728800822871993</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.687031123537739</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.6938936216574572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6658315184614201</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.7129711573675094</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6538069487826856</v>
+        <v>-0.6294611300621085</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6304094612009713</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.674079729281658</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.5583988793010856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6921555867979279</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.691067937504771</v>
+        <v>-0.7019096277021685</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5835234609165773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.5141878900918271</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.6341120243523864</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.6874425247816666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.6985488330936455</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.6028244584799218</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6690852965407302</v>
+        <v>-0.7018340069214912</v>
       </c>
     </row>
   </sheetData>
